--- a/matrimony.com/Excel/changepassword.xlsx
+++ b/matrimony.com/Excel/changepassword.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14130" windowHeight="2700"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14130" windowHeight="2700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,28 +16,127 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>Old password</t>
   </si>
   <si>
-    <t>cbstest5</t>
-  </si>
-  <si>
     <t>newpassword</t>
   </si>
   <si>
     <t>confirmnewpassword</t>
   </si>
   <si>
-    <t>cbstest</t>
+    <t>testpass</t>
+  </si>
+  <si>
+    <t>testpass5</t>
+  </si>
+  <si>
+    <t>inbox</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>sent</t>
+  </si>
+  <si>
+    <t>request</t>
+  </si>
+  <si>
+    <t>received</t>
+  </si>
+  <si>
+    <t>login one</t>
+  </si>
+  <si>
+    <t>login two</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>nep141072</t>
+  </si>
+  <si>
+    <t>nep140707</t>
+  </si>
+  <si>
+    <t>nep768795</t>
+  </si>
+  <si>
+    <t>NEP776973</t>
+  </si>
+  <si>
+    <t>NEP776980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In abc login message -&gt; sent -&gt; sent interest to xyz  </t>
+  </si>
+  <si>
+    <t>NEP777168</t>
+  </si>
+  <si>
+    <t>Srikooram@30</t>
+  </si>
+  <si>
+    <t>nep140549</t>
+  </si>
+  <si>
+    <t>Message - &gt; received -&gt; interest received from xyz decline and need to check the decline -&gt; interest -&gt; you have decline xyz</t>
+  </si>
+  <si>
+    <t>Message - &gt; received -&gt; interest received from xyz accept and need to check the accept -&gt; interest -&gt; you have accepted the below interest from xyz</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Accept</t>
+  </si>
+  <si>
+    <t>Decline</t>
+  </si>
+  <si>
+    <t>replied</t>
+  </si>
+  <si>
+    <t>I will login in xyz,it should be shown in message-&gt;pending-.received-&gt; recived interest from abc in xyz login.</t>
+  </si>
+  <si>
+    <t>I send interest from abc to xyz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I will login in xyz,it should be shown in request-&gt;received-&gt; recived  request from abc in xyz login.</t>
+  </si>
+  <si>
+    <t>I send request from abc to xyz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In abc login request -&gt; sent -&gt; sent request to xyz  </t>
+  </si>
+  <si>
+    <t>Need to login in abc and interest accepted has to shown</t>
+  </si>
+  <si>
+    <t>relogin to abc and inbox-sent -accepted-interest - need to validate xyz acceptence</t>
+  </si>
+  <si>
+    <t>send interest from abc to xyz, and login in xyz and accept message</t>
+  </si>
+  <si>
+    <t>NEP140675</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +149,20 @@
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,15 +197,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -385,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -403,21 +526,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
@@ -435,6 +558,11 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
+    <row r="9" spans="1:18">
+      <c r="B9">
+        <v>113977</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -443,13 +571,224 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="V4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V5" t="s">
+        <v>14</v>
+      </c>
+      <c r="X5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="Y5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
